--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3846041.521230731</v>
+        <v>3840197.386225602</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.53325642</v>
+        <v>6239134.533256417</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069178</v>
+        <v>840694.9721069181</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.4385794440781</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>321.1595027263045</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.9069145994737</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>163.1482332545338</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>289.2978276702128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.9829618639544</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>65.51651982872603</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>92.832172698996</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.77238941128203</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>70.03418953493001</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040295</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H12" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T12" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U12" t="n">
         <v>225.7906402288772</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>48.13598352300124</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>50.44975822509308</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H15" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T15" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U15" t="n">
         <v>225.7906402288772</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>3.850599660009527</v>
+        <v>250.9011530022395</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,10 +1861,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H17" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803221</v>
+        <v>251.003062380321</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H18" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T18" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U18" t="n">
         <v>225.7906402288772</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2061,16 +2061,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>178.3466899741962</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040302</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145557</v>
+        <v>111.435299014555</v>
       </c>
       <c r="T20" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803228</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>118.3523534907587</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>39.52676478343903</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>277.7597173708263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212049</v>
       </c>
       <c r="H26" t="n">
         <v>295.6178616169272</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>39.52676478343903</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
-        <v>154.4958537369094</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>251.0030623803221</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>11.19798086567474</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>68.72470345173693</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>28.81869974802235</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>88.17731037918746</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>111.2273514538165</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>67.57137291817983</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>61.74932244439676</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T40" t="n">
         <v>219.7379838856521</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>92.48911656077881</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
         <v>97.68290229956055</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>46.71586890606883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>26.83369495939535</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -4191,19 +4191,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>194.1107784930271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1061.976198199963</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>949.7763040344662</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.576038264085</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4418,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005474</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>941.2608351981287</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2301.146718656286</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W5" t="n">
-        <v>1701.32643352333</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X5" t="n">
-        <v>1327.86067526225</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.86067526225</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4637,40 +4637,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1327.372931623164</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>958.4104146827526</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>958.4104146827526</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>572.6221620845083</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>565.6766613353049</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>147.7128532334917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598976</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.372931623164</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092202</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092202</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>352.6741383092202</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I11" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K11" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.223600516549</v>
+        <v>1676.497326176646</v>
       </c>
       <c r="M11" t="n">
-        <v>2347.094370001889</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N11" t="n">
-        <v>3309.42378543053</v>
+        <v>2722.239765227106</v>
       </c>
       <c r="O11" t="n">
-        <v>3795.944346689562</v>
+        <v>3585.752505936256</v>
       </c>
       <c r="P11" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150652</v>
       </c>
       <c r="Q11" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926292</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5071,22 +5071,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T11" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U11" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V11" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y11" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="12">
@@ -5105,10 +5105,10 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E12" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F12" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G12" t="n">
         <v>197.3489189817663</v>
@@ -5117,28 +5117,28 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I12" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K12" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P12" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.001780409306</v>
+        <v>344.5039069099608</v>
       </c>
       <c r="C13" t="n">
-        <v>341.001780409306</v>
+        <v>344.5039069099608</v>
       </c>
       <c r="D13" t="n">
-        <v>341.001780409306</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="E13" t="n">
-        <v>341.001780409306</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F13" t="n">
-        <v>341.001780409306</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G13" t="n">
-        <v>341.001780409306</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H13" t="n">
         <v>194.3872674976251</v>
       </c>
       <c r="I13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J13" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150415</v>
       </c>
       <c r="M13" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5217,34 +5217,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P13" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q13" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302083</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S13" t="n">
         <v>1628.774119163341</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682885</v>
+        <v>1580.151913584551</v>
       </c>
       <c r="U13" t="n">
-        <v>1117.711255224911</v>
+        <v>1291.046609126578</v>
       </c>
       <c r="V13" t="n">
-        <v>863.0267670190245</v>
+        <v>1036.362120920691</v>
       </c>
       <c r="W13" t="n">
-        <v>573.609596982064</v>
+        <v>746.9449508837307</v>
       </c>
       <c r="X13" t="n">
-        <v>522.6502452395457</v>
+        <v>746.9449508837307</v>
       </c>
       <c r="Y13" t="n">
-        <v>522.6502452395457</v>
+        <v>526.1523717402006</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C14" t="n">
         <v>2010.371253198262</v>
@@ -5266,7 +5266,7 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
         <v>440.1593205155743</v>
@@ -5275,31 +5275,31 @@
         <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K14" t="n">
-        <v>918.6120443066563</v>
+        <v>885.0049741500018</v>
       </c>
       <c r="L14" t="n">
-        <v>1354.237307536703</v>
+        <v>1320.630237380049</v>
       </c>
       <c r="M14" t="n">
-        <v>1870.623786326387</v>
+        <v>2282.035114327637</v>
       </c>
       <c r="N14" t="n">
-        <v>2657.180509552854</v>
+        <v>3244.364529756277</v>
       </c>
       <c r="O14" t="n">
-        <v>3520.693250262004</v>
+        <v>3730.885091015309</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.940766252041</v>
+        <v>4667.94076625204</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5308,22 +5308,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T14" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U14" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V14" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y14" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="15">
@@ -5342,10 +5342,10 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E15" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F15" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G15" t="n">
         <v>197.3489189817663</v>
@@ -5354,25 +5354,25 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I15" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N15" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P15" t="n">
         <v>2436.525948037006</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.3551423714068</v>
+        <v>263.4651948734964</v>
       </c>
       <c r="C16" t="n">
-        <v>410.3551423714068</v>
+        <v>263.4651948734964</v>
       </c>
       <c r="D16" t="n">
-        <v>410.3551423714068</v>
+        <v>263.4651948734964</v>
       </c>
       <c r="E16" t="n">
-        <v>410.3551423714068</v>
+        <v>263.4651948734964</v>
       </c>
       <c r="F16" t="n">
-        <v>263.4651948734965</v>
+        <v>263.4651948734964</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I16" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J16" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150415</v>
       </c>
       <c r="M16" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5454,34 +5454,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P16" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q16" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682885</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.711255224911</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190245</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W16" t="n">
-        <v>859.1372724129543</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X16" t="n">
-        <v>631.147721514937</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.3551423714068</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="17">
@@ -5500,43 +5500,43 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H17" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K17" t="n">
-        <v>918.6120443066563</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1441.670768772048</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M17" t="n">
-        <v>2403.075645719636</v>
+        <v>2127.824549292077</v>
       </c>
       <c r="N17" t="n">
-        <v>2932.431605980412</v>
+        <v>2657.180509552853</v>
       </c>
       <c r="O17" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262003</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.0070134764</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.94076625204</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5545,19 +5545,19 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U17" t="n">
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5579,10 +5579,10 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E18" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F18" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G18" t="n">
         <v>197.3489189817663</v>
@@ -5591,16 +5591,16 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I18" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936093</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418659</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740672</v>
+        <v>769.641472174067</v>
       </c>
       <c r="M18" t="n">
         <v>1203.680327106303</v>
@@ -5609,10 +5609,10 @@
         <v>1663.615543921421</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.14661647041</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P18" t="n">
-        <v>2362.669871067691</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.5735326357868</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="C19" t="n">
-        <v>540.6373497078799</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="D19" t="n">
-        <v>390.5207102955442</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="E19" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="F19" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="G19" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H19" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I19" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J19" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150415</v>
       </c>
       <c r="M19" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5691,34 +5691,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P19" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q19" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T19" t="n">
-        <v>1406.816559682885</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U19" t="n">
-        <v>1117.711255224911</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V19" t="n">
-        <v>937.5630835338042</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W19" t="n">
-        <v>937.5630835338042</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X19" t="n">
-        <v>709.5735326357868</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.5735326357868</v>
+        <v>277.3661340454804</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993266</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036595</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I20" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J20" t="n">
         <v>276.3093906935954</v>
       </c>
       <c r="K20" t="n">
-        <v>911.1416242268238</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L20" t="n">
-        <v>1760.251489861816</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M20" t="n">
-        <v>2721.656366809405</v>
+        <v>2347.094370001889</v>
       </c>
       <c r="N20" t="n">
-        <v>3251.012327070181</v>
+        <v>3309.423785430529</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.52506777933</v>
+        <v>3795.944346689561</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4495.258109903958</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926292</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>333.7653240437119</v>
       </c>
       <c r="G21" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H21" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I21" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P21" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3555.03622773609</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="C22" t="n">
-        <v>3386.100044808183</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="D22" t="n">
-        <v>3235.983405395847</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="E22" t="n">
-        <v>3088.070311813454</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="F22" t="n">
-        <v>3088.070311813454</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="G22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J22" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150415</v>
       </c>
       <c r="M22" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O22" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>4501.578929952707</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T22" t="n">
-        <v>4501.578929952707</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U22" t="n">
-        <v>4501.578929952707</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V22" t="n">
-        <v>4246.89444174682</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W22" t="n">
-        <v>3957.477271709859</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X22" t="n">
-        <v>3957.477271709859</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y22" t="n">
-        <v>3736.684692566329</v>
+        <v>277.3661340454804</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I23" t="n">
-        <v>95.71766921524055</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935952</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443783</v>
+        <v>2483.047833504644</v>
       </c>
       <c r="N23" t="n">
-        <v>3352.75341009274</v>
+        <v>3012.40379376542</v>
       </c>
       <c r="O23" t="n">
-        <v>3839.273971351772</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P23" t="n">
         <v>4220.007013476401</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6059,19 +6059,19 @@
         <v>333.7653240437119</v>
       </c>
       <c r="G24" t="n">
-        <v>197.3489189817664</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H24" t="n">
         <v>106.3322115589798</v>
       </c>
       <c r="I24" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L24" t="n">
         <v>843.4975491433823</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>656.6623996499549</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="C25" t="n">
-        <v>656.6623996499549</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="D25" t="n">
-        <v>656.6623996499549</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="E25" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="F25" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="G25" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="H25" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="I25" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524073</v>
       </c>
       <c r="J25" t="n">
         <v>137.7436613720288</v>
@@ -6153,7 +6153,7 @@
         <v>336.6421130738839</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150415</v>
       </c>
       <c r="M25" t="n">
         <v>983.9813277239498</v>
@@ -6174,25 +6174,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T25" t="n">
-        <v>1628.774119163341</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.668814705367</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V25" t="n">
-        <v>1339.668814705367</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W25" t="n">
-        <v>1059.103443623725</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X25" t="n">
-        <v>1059.103443623725</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y25" t="n">
-        <v>838.3108644801946</v>
+        <v>277.3661340454804</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036601</v>
       </c>
       <c r="G26" t="n">
         <v>440.1593205155743</v>
@@ -6232,16 +6232,16 @@
         <v>918.6120443066561</v>
       </c>
       <c r="L26" t="n">
-        <v>1767.721909941649</v>
+        <v>1676.497326176647</v>
       </c>
       <c r="M26" t="n">
-        <v>2511.464526056098</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N26" t="n">
-        <v>3040.820486316874</v>
+        <v>2722.239765227107</v>
       </c>
       <c r="O26" t="n">
-        <v>3904.333227026024</v>
+        <v>3585.752505936257</v>
       </c>
       <c r="P26" t="n">
         <v>4285.066269150653</v>
@@ -6305,22 +6305,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K27" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L27" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M27" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P27" t="n">
         <v>2436.525948037006</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3896.740381995089</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>3727.804199067182</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>3577.687559654847</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>3429.774466072453</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>3282.884518574543</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L28" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M28" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N28" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O28" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>4694.043622091449</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S28" t="n">
-        <v>4501.578929952707</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T28" t="n">
-        <v>4501.578929952707</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U28" t="n">
-        <v>4501.578929952707</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>4345.522512036637</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
-        <v>4345.522512036637</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
-        <v>4117.53296113862</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>3896.740381995089</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K29" t="n">
-        <v>918.6120443066561</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1676.497326176647</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M29" t="n">
-        <v>2192.88380496633</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N29" t="n">
-        <v>2722.239765227107</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O29" t="n">
-        <v>3585.752505936257</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P29" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6542,7 +6542,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K30" t="n">
         <v>488.1430095111811</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>867.4991373309775</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>698.5629544030706</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>548.4463149907349</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>400.5332214083418</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>253.6432739104314</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>253.6432739104314</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>107.0287609987506</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6648,25 +6648,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S31" t="n">
-        <v>1821.238811302082</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T31" t="n">
-        <v>1821.238811302082</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U31" t="n">
-        <v>1821.238811302082</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>1566.554323096195</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>1277.137153059235</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>1049.147602161217</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>1049.147602161217</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K32" t="n">
-        <v>918.6120443066561</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1767.721909941649</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M32" t="n">
-        <v>2511.464526056098</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N32" t="n">
-        <v>3040.820486316874</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O32" t="n">
-        <v>3904.333227026024</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P32" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C33" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D33" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E33" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F33" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G33" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H33" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I33" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>2382.843886476065</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K33" t="n">
-        <v>2612.671804624322</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L33" t="n">
-        <v>2968.026344256523</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M33" t="n">
-        <v>3402.065199188758</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N33" t="n">
-        <v>3935.856492973193</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
-        <v>4334.387565522181</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P33" t="n">
-        <v>4634.910820119462</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R33" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S33" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T33" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U33" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V33" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W33" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X33" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y33" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>600.3045342899327</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>431.3683513620258</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>431.3683513620258</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>283.4552577796327</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>283.4552577796327</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>283.4552577796327</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
         <v>95.71766921524075</v>
@@ -6894,16 +6894,16 @@
         <v>1117.711255224911</v>
       </c>
       <c r="V34" t="n">
-        <v>1117.711255224911</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W34" t="n">
-        <v>828.29408518795</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X34" t="n">
-        <v>600.3045342899327</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y34" t="n">
-        <v>600.3045342899327</v>
+        <v>124.8274669405158</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036605</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924156</v>
@@ -6937,28 +6937,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443784</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N35" t="n">
-        <v>2937.57878870456</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
-        <v>3801.091529413709</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,22 +7016,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K36" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L36" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P36" t="n">
         <v>2436.525948037006</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3547.839255981602</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C37" t="n">
-        <v>3378.903073053696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D37" t="n">
-        <v>3228.78643364136</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>3080.873340058967</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>3080.873340058967</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L37" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M37" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N37" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O37" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P37" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>4694.043622091449</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S37" t="n">
-        <v>4501.578929952707</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T37" t="n">
-        <v>4501.578929952707</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U37" t="n">
-        <v>4501.578929952707</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V37" t="n">
-        <v>4246.89444174682</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W37" t="n">
-        <v>3957.477271709859</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X37" t="n">
-        <v>3729.487720811842</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y37" t="n">
-        <v>3729.487720811842</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,25 +7174,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K38" t="n">
-        <v>765.113734881556</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.223600516549</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M38" t="n">
-        <v>2192.88380496633</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N38" t="n">
-        <v>2722.239765227107</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O38" t="n">
-        <v>3585.752505936257</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P38" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q38" t="n">
         <v>4733.000021926293</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>573.6095969820633</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C40" t="n">
-        <v>404.6734140541564</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D40" t="n">
-        <v>404.6734140541564</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E40" t="n">
-        <v>256.7603204717633</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F40" t="n">
-        <v>256.7603204717633</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T40" t="n">
-        <v>1406.816559682884</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U40" t="n">
-        <v>1117.711255224911</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V40" t="n">
-        <v>863.0267670190239</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W40" t="n">
-        <v>573.6095969820633</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X40" t="n">
-        <v>573.6095969820633</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y40" t="n">
-        <v>573.6095969820633</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7417,22 +7417,22 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1935.127558962002</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M41" t="n">
-        <v>2451.514037751685</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N41" t="n">
-        <v>2980.869998012462</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O41" t="n">
-        <v>3585.752505936257</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P42" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3529.74264502555</v>
+        <v>901.3910463933345</v>
       </c>
       <c r="C43" t="n">
-        <v>3529.74264502555</v>
+        <v>732.4548634654276</v>
       </c>
       <c r="D43" t="n">
-        <v>3529.74264502555</v>
+        <v>582.3382240530918</v>
       </c>
       <c r="E43" t="n">
-        <v>3381.829551443157</v>
+        <v>434.4251304706987</v>
       </c>
       <c r="F43" t="n">
-        <v>3234.939603945247</v>
+        <v>434.4251304706987</v>
       </c>
       <c r="G43" t="n">
-        <v>3067.192078286991</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H43" t="n">
-        <v>3067.192078286991</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I43" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L43" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M43" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N43" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O43" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>4785.883460762037</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>4785.883460762037</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T43" t="n">
-        <v>4785.883460762037</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="U43" t="n">
-        <v>4496.778156304064</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="V43" t="n">
-        <v>4449.590409934298</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="W43" t="n">
-        <v>4160.173239897337</v>
+        <v>1531.821641265122</v>
       </c>
       <c r="X43" t="n">
-        <v>3932.18368899932</v>
+        <v>1303.832090367104</v>
       </c>
       <c r="Y43" t="n">
-        <v>3711.39110985579</v>
+        <v>1083.039511223574</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K44" t="n">
-        <v>918.6120443066561</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1767.721909941649</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M44" t="n">
-        <v>2284.108388731333</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N44" t="n">
-        <v>3246.437804159973</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O44" t="n">
-        <v>3732.958365419005</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
         <v>4220.007013476401</v>
@@ -7727,7 +7727,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K45" t="n">
         <v>488.1430095111811</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.3144713837966</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="C46" t="n">
-        <v>411.3782884558896</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="D46" t="n">
-        <v>411.3782884558896</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="E46" t="n">
-        <v>263.4651948734965</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F46" t="n">
         <v>263.4651948734965</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T46" t="n">
-        <v>1406.816559682884</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U46" t="n">
-        <v>1406.816559682884</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V46" t="n">
-        <v>1406.816559682884</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.745066255584</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X46" t="n">
-        <v>982.7555153575664</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.9629362140363</v>
+        <v>437.4598847546345</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,25 +8692,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>156.4185551713031</v>
       </c>
       <c r="M11" t="n">
-        <v>218.6710007026832</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>121.1022618873189</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>259.7987504703942</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
-        <v>74.60209794880245</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>88.31662751044888</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.60209794880225</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>316.5995337026473</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>63.62220330359219</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>3.419393410990466</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>419.3683044325053</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>21.98878306823497</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>74.60209794880336</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>325.5151703433776</v>
       </c>
       <c r="M26" t="n">
-        <v>229.6526639644094</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>325.5151703433776</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K30" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,22 +10357,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>229.6526639644094</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061708</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>74.60209794880427</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>104.2845430427421</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,19 +10831,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>62.90275319201828</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>119.5575218835991</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>3.419393410990466</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>90.70213529832188</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>107.3895009421892</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K45" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,7 +23433,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>171.6020003626509</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>175.2598971639441</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>282.6723986765815</v>
+        <v>35.62184533435152</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
@@ -23910,7 +23910,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>73.79095334963185</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>47.7176969109145</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
         <v>145.148367782564</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>8.763280965764693</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>97.68290229956055</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>97.64178958691858</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>86.48492143388582</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>151.013280433915</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>56.97105740337655</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>54.84269894785672</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>151.013280433915</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>104.3207279572764</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73.58093384089436</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
@@ -25842,10 +25842,10 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>205.4217744177592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.781778058817</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>92.41221984356392</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>653499.2993980013</v>
+        <v>653499.2993980012</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653499.2993980014</v>
+        <v>653499.2993980013</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653499.2993980014</v>
+        <v>653499.2993980013</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653499.2993980014</v>
+        <v>653499.2993980013</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653499.2993980015</v>
+        <v>653499.2993980014</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>653499.2993980013</v>
+        <v>653499.2993980014</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653499.2993980013</v>
+        <v>653499.2993980014</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>753367.6739210167</v>
+        <v>753367.6739210165</v>
       </c>
       <c r="F2" t="n">
         <v>753367.6739210169</v>
@@ -26331,31 +26331,31 @@
         <v>753367.6739210167</v>
       </c>
       <c r="H2" t="n">
+        <v>753367.6739210164</v>
+      </c>
+      <c r="I2" t="n">
+        <v>753367.6739210172</v>
+      </c>
+      <c r="J2" t="n">
         <v>753367.6739210166</v>
       </c>
-      <c r="I2" t="n">
-        <v>753367.673921017</v>
-      </c>
-      <c r="J2" t="n">
-        <v>753367.6739210164</v>
-      </c>
       <c r="K2" t="n">
-        <v>753367.6739210162</v>
+        <v>753367.6739210166</v>
       </c>
       <c r="L2" t="n">
+        <v>753367.6739210169</v>
+      </c>
+      <c r="M2" t="n">
         <v>753367.6739210167</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>753367.6739210166</v>
       </c>
-      <c r="N2" t="n">
-        <v>753367.6739210169</v>
-      </c>
       <c r="O2" t="n">
-        <v>753367.6739210169</v>
+        <v>753367.6739210167</v>
       </c>
       <c r="P2" t="n">
-        <v>753367.6739210169</v>
+        <v>753367.6739210167</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518283</v>
+        <v>708251.0967518282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.850638409455616e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694095</v>
+        <v>130130.2399694094</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="F4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659321</v>
       </c>
       <c r="G4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.2424165932</v>
       </c>
       <c r="H4" t="n">
-        <v>19876.24241659321</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="I4" t="n">
         <v>19876.24241659317</v>
@@ -26444,16 +26444,16 @@
         <v>19876.24241659316</v>
       </c>
       <c r="K4" t="n">
-        <v>19876.24241659318</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="L4" t="n">
-        <v>19876.24241659316</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="M4" t="n">
         <v>19876.24241659317</v>
       </c>
       <c r="N4" t="n">
-        <v>19876.24241659316</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="O4" t="n">
         <v>19876.24241659317</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
         <v>95967.7133920692</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76185.96276401271</v>
+        <v>-76185.9627640128</v>
       </c>
       <c r="C6" t="n">
-        <v>513781.9164505316</v>
+        <v>513781.9164505317</v>
       </c>
       <c r="D6" t="n">
-        <v>513781.9164505316</v>
+        <v>513781.9164505313</v>
       </c>
       <c r="E6" t="n">
-        <v>-70727.37863947393</v>
+        <v>-71427.95778289648</v>
       </c>
       <c r="F6" t="n">
-        <v>637523.7181123545</v>
+        <v>636823.138968932</v>
       </c>
       <c r="G6" t="n">
-        <v>637523.7181123544</v>
+        <v>636823.1389689319</v>
       </c>
       <c r="H6" t="n">
-        <v>637523.7181123542</v>
+        <v>636823.1389689316</v>
       </c>
       <c r="I6" t="n">
-        <v>637523.7181123546</v>
+        <v>636823.1389689324</v>
       </c>
       <c r="J6" t="n">
-        <v>461100.4989197613</v>
+        <v>460399.9197763389</v>
       </c>
       <c r="K6" t="n">
-        <v>637523.7181123538</v>
+        <v>636823.1389689319</v>
       </c>
       <c r="L6" t="n">
-        <v>637523.7181123544</v>
+        <v>636823.1389689321</v>
       </c>
       <c r="M6" t="n">
-        <v>507393.4781429449</v>
+        <v>506692.8989995227</v>
       </c>
       <c r="N6" t="n">
-        <v>637523.7181123545</v>
+        <v>636823.1389689319</v>
       </c>
       <c r="O6" t="n">
-        <v>637523.7181123545</v>
+        <v>636823.138968932</v>
       </c>
       <c r="P6" t="n">
-        <v>637523.7181123545</v>
+        <v>636823.138968932</v>
       </c>
     </row>
   </sheetData>
@@ -26703,16 +26703,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731072</v>
+        <v>687.498757273107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359535</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545549</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359535</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359535</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>263.8343123269295</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>85.71654301540696</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>14.7085584187387</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>53.30008710312399</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>59.94314104720024</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.84901831798291</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1931355603111</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>231.0906000653611</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>26.70601316352967</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>216.488808801661</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29517,22 +29517,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,22 +29562,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I11" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R11" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J12" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q12" t="n">
         <v>292.4793908967038</v>
@@ -31870,7 +31870,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31913,43 +31913,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K13" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N13" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S13" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I14" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R14" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J15" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q15" t="n">
         <v>292.4793908967038</v>
@@ -32107,7 +32107,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32150,43 +32150,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N16" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S16" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I17" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R17" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J18" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q18" t="n">
         <v>292.4793908967038</v>
@@ -32344,7 +32344,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32387,43 +32387,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K19" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N19" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S19" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L11" t="n">
-        <v>857.6867329646393</v>
+        <v>596.4440735854918</v>
       </c>
       <c r="M11" t="n">
-        <v>740.2735045306466</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N11" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O11" t="n">
-        <v>491.4349103626587</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R11" t="n">
-        <v>53.41761498560015</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K13" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O13" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051119</v>
+        <v>445.747408521266</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141889</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N14" t="n">
-        <v>794.5017406327945</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O14" t="n">
-        <v>872.235091625404</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
-        <v>306.7515102197686</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K16" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O16" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L17" t="n">
-        <v>528.3421459246377</v>
+        <v>530.7276537125097</v>
       </c>
       <c r="M17" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901624003</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O17" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239248</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.0997147594846</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K19" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O19" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K20" t="n">
-        <v>641.2446803365943</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L20" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207958</v>
+        <v>585.2247071315555</v>
       </c>
       <c r="N20" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
         <v>240.1433454771049</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709661</v>
@@ -36220,7 +36220,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K23" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M23" t="n">
         <v>971.1160373207958</v>
       </c>
       <c r="N23" t="n">
-        <v>954.0712945949053</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O23" t="n">
-        <v>491.4349103626585</v>
+        <v>513.4236934308934</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q23" t="n">
         <v>452.4583361370096</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
-        <v>433.5460773752692</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
         <v>438.4230857901371</v>
@@ -36600,10 +36600,10 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646391</v>
+        <v>765.5406887575663</v>
       </c>
       <c r="M26" t="n">
-        <v>751.2551677923727</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N26" t="n">
         <v>534.7029901624001</v>
@@ -36612,7 +36612,7 @@
         <v>872.2350916254038</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
         <v>452.4583361370096</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K27" t="n">
         <v>232.1494122709661</v>
@@ -36691,7 +36691,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P27" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q27" t="n">
         <v>152.4976168106822</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K29" t="n">
         <v>648.7905592051118</v>
       </c>
       <c r="L29" t="n">
-        <v>765.5406887575663</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M29" t="n">
         <v>521.6025038279633</v>
@@ -36855,7 +36855,7 @@
         <v>452.4583361370096</v>
       </c>
       <c r="R29" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K30" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K32" t="n">
         <v>648.7905592051118</v>
@@ -37077,22 +37077,22 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M32" t="n">
-        <v>751.2551677923727</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N32" t="n">
         <v>534.7029901624001</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254038</v>
+        <v>545.2760123732755</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q32" t="n">
         <v>452.4583361370096</v>
       </c>
       <c r="R32" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K33" t="n">
         <v>232.1494122709661</v>
@@ -37159,7 +37159,7 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N33" t="n">
-        <v>539.1831250347823</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O33" t="n">
         <v>402.556638938372</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901624001</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O35" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P35" t="n">
-        <v>488.8633734716604</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
         <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K36" t="n">
         <v>232.1494122709661</v>
@@ -37402,7 +37402,7 @@
         <v>402.556638938372</v>
       </c>
       <c r="P36" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q36" t="n">
         <v>152.4976168106822</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K38" t="n">
         <v>324.645146633947</v>
@@ -37551,19 +37551,19 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M38" t="n">
-        <v>584.5052570199816</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N38" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R38" t="n">
         <v>53.4176149856001</v>
@@ -37785,7 +37785,7 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646391</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M41" t="n">
         <v>521.6025038279633</v>
@@ -37794,7 +37794,7 @@
         <v>534.7029901624001</v>
       </c>
       <c r="O41" t="n">
-        <v>610.9924322462575</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P41" t="n">
         <v>706.3775386004008</v>
@@ -37803,7 +37803,7 @@
         <v>452.4583361370096</v>
       </c>
       <c r="R41" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709661</v>
@@ -37879,7 +37879,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K44" t="n">
         <v>648.7905592051118</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279633</v>
+        <v>612.3046391262852</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O44" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P44" t="n">
-        <v>491.9683313711074</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q44" t="n">
         <v>452.4583361370096</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K45" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264659</v>
